--- a/reports/test_result.xlsx
+++ b/reports/test_result.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Test Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="currency_filtering_test" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +478,67 @@
         </is>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>page_url</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>testcase</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Currency Change to US</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $767', 'De $719', 'De $1,168', 'De $161', 'De $366', 'De $117', 'De $741', 'De $496', 'De $722', 'De $269', 'De $1,995', 'De $69', 'De $1,448', 'De $215', 'De $1,071', 'De $539', 'De $591', 'De $234', 'De $1,089', 'De $111', 'De $121', 'De $227', 'De $380', 'De $524']</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -473,17 +547,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HTML tag sequence test</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
+          <t>Currency Change to CA</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sequence broken: &lt;h5&gt; is missing</t>
+          <t>Updated prices: ['De $1,084', 'De $1,017', 'De $1,651', 'De $227', 'De $517', 'De $166', 'De $1,047', 'De $701', 'De $1,021', 'De $380', 'De $2,820', 'De $97', 'De $2,047', 'De $304', 'De $1,514', 'De $762', 'De $836', 'De $330', 'De $1,539', 'De $157', 'De $171', 'De $321', 'De $537', 'De $741']</t>
         </is>
       </c>
     </row>
@@ -495,17 +567,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Image alt attribute test</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
+          <t>Currency Change to BE</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>All images have alt attributes.</t>
+          <t>Updated prices: ['De €725', 'De €680', 'De €1,104', 'De €152', 'De €346', 'De €111', 'De €700', 'De €469', 'De €682', 'De €254', 'De €1,886', 'De €65', 'De €1,369', 'De €203', 'De €1,012', 'De €509', 'De €559', 'De €221', 'De €1,029', 'De €105', 'De €114', 'De €215', 'De €359', 'De €495']</t>
         </is>
       </c>
     </row>
@@ -517,17 +587,95 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>URL status code test</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
+          <t>Currency Change to IE</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>All URLs returned valid status codes.</t>
+          <t>Updated prices: ['De £600', 'De £563', 'De £914', 'De £126', 'De £287', 'De £92', 'De £580', 'De £388', 'De £565', 'De £211', 'De £1,562', 'De £54', 'De £1,134', 'De £168', 'De £838', 'De £422', 'De £463', 'De £183', 'De £853', 'De £87', 'De £95', 'De £178', 'De £297', 'De £410']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Currency Change to AU</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $1,190', 'De $1,116', 'De $1,812', 'De $250', 'De $568', 'De $182', 'De $1,150', 'De $770', 'De $1,120', 'De $417', 'De $3,095', 'De $106', 'De $2,246', 'De $334', 'De $1,662', 'De $836', 'De $917', 'De $363', 'De $1,690', 'De $172', 'De $188', 'De $353', 'De $590', 'De $813']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Currency Change to SG</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $1,027', 'De $963', 'De $1,564', 'De $215', 'De $490', 'De $157', 'De $992', 'De $664', 'De $967', 'De $360', 'De $2,671', 'De $92', 'De $1,939', 'De $288', 'De $1,434', 'De $722', 'De $792', 'De $313', 'De $1,458', 'De $149', 'De $162', 'De $304', 'De $509', 'De $702']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Currency Change to AE</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De د.إ.2,817', 'De د.إ.2,642', 'De د.إ.4,290', 'De د.إ.591', 'De د.إ.1,344', 'De د.إ.431', 'De د.إ.2,722', 'De د.إ.1,822', 'De د.إ.2,652', 'De د.إ.988', 'De د.إ.7,328', 'De د.إ.252', 'De د.إ.5,318', 'De د.إ.790', 'De د.إ.3,934', 'De د.إ.1,980', 'De د.إ.2,172', 'De د.إ.858', 'De د.إ.4,000', 'De د.إ.408', 'De د.إ.444', 'De د.إ.835', 'De د.إ.1,396', 'De د.إ.1,925']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Currency Change to BD</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De ৳91,966', 'De ৳86,234', 'De ৳140,047', 'De ৳19,294', 'De ৳43,885', 'De ৳14,077', 'De ৳88,848', 'De ৳59,492', 'De ৳86,570', 'De ৳32,248', 'De ৳239,207', 'De ৳8,219', 'De ৳173,620', 'De ৳25,779', 'De ৳128,416', 'De ৳64,628', 'De ৳70,899', 'De ৳28,023', 'De ৳130,575', 'De ৳13,309', 'De ৳14,499', 'De ৳27,260', 'De ৳45,563', 'De ৳62,841']</t>
         </is>
       </c>
     </row>

--- a/reports/test_result.xlsx
+++ b/reports/test_result.xlsx
@@ -7,8 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Results" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="currency_filtering_test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="h1_tag_test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="html_tag_sequence_test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="image_alt_attribute_test" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="url_status_test" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ScrapedData" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="currency_filtering_test" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,22 +439,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Page URL</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -464,17 +468,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H1 tag existence test</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
+          <t>Check H1 Tag</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>H1 tag exists</t>
+          <t>&lt;h1&gt; tag exists with text: Bonita casa de campo típica Mallorquina | Casa en Sant Jordi</t>
         </is>
       </c>
     </row>
@@ -484,6 +486,272 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HTML Tag Sequence Test</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sequence broken: &lt;h5&gt; is missing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Check Image Alt Attribute</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>All images have alt attributes.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Check URL Status</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>All URLs returned valid status codes.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SiteURL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CampaignID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SiteName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CountryCode</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ALOJAMIENTO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>alo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Headless Chrome</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>182.160.106.203</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -500,22 +768,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>Page URL</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>testcase</t>
+          <t>Test Case</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>Comments</t>
         </is>
       </c>
     </row>

--- a/reports/test_result.xlsx
+++ b/reports/test_result.xlsx
@@ -10,9 +10,11 @@
     <sheet name="h1_tag_test" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="html_tag_sequence_test" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="image_alt_attribute_test" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="url_status_test" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ScrapedData" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="currency_filtering_test" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ScrapedData" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="currency_filtering_test" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="currency_filtering_test1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="currency_filtering_test2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="currency_filtering_test3" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +465,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+          <t>https://www.alojamiento.io</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;h1&gt; tag exists with text: Bonita casa de campo típica Mallorquina | Casa en Sant Jordi</t>
+          <t>&lt;h1&gt; tag exists with text: Encuentra los mejores alojamientos y casas de alquiler vacacional</t>
         </is>
       </c>
     </row>
@@ -524,7 +526,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+          <t>https://www.alojamiento.io</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -537,7 +539,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sequence broken: &lt;h5&gt; is missing</t>
+          <t>Sequence broken: &lt;h3&gt; is missing</t>
         </is>
       </c>
     </row>
@@ -585,7 +587,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+          <t>https://www.alojamiento.io</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -608,67 +610,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Page URL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Check URL Status</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>All URLs returned valid status codes.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -717,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+          <t>https://www.alojamiento.io</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -743,6 +684,207 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>182.160.106.203</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Currency Change to US</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $130', 'De $311', 'De $91', 'De $85', 'De $22', 'De $248']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Currency Change to CA</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $184', 'De $439', 'De $128', 'De $120', 'De $31', 'De $350']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Currency Change to BE</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De €123', 'De €294', 'De €86', 'De €80', 'De €21', 'De €234']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Currency Change to IE</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De £102', 'De £243', 'De £71', 'De £66', 'De £17', 'De £194']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Currency Change to AU</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $202', 'De $482', 'De $141', 'De $131', 'De $34', 'De $384']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Currency Change to SG</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $175', 'De $416', 'De $121', 'De $113', 'De $30', 'De $332']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Currency Change to AE</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De د.إ.479', 'De د.إ.1,141', 'De د.إ.333', 'De د.إ.311', 'De د.إ.81', 'De د.إ.910']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Currency Change to BD</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De ৳15,632', 'De ৳37,255', 'De ৳10,879', 'De ৳10,139', 'De ৳2,646', 'De ৳29,707']</t>
         </is>
       </c>
     </row>
@@ -950,4 +1092,406 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Currency Change to US</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $108', 'De $72', 'De $133', 'De $74', 'De $192', 'De $50']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Currency Change to CA</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $152', 'De $102', 'De $188', 'De $105', 'De $271', 'De $71']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Currency Change to BE</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De €102', 'De €68', 'De €126', 'De €70', 'De €181', 'De €47']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Currency Change to IE</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De £84', 'De £57', 'De £104', 'De £58', 'De £150', 'De £39']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Currency Change to AU</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $167', 'De $112', 'De $206', 'De $115', 'De $298', 'De $78']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Currency Change to SG</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $144', 'De $97', 'De $178', 'De $99', 'De $257', 'De $67']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Currency Change to AE</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De د.إ.395', 'De د.إ.265', 'De د.إ.489', 'De د.إ.272', 'De د.إ.705', 'De د.إ.184']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Currency Change to BD</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De ৳12,890', 'De ৳8,656', 'De ৳15,947', 'De ৳8,873', 'De ৳23,021', 'De ৳6,000']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Page URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Currency Change to US</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $310', 'De $163', 'De $692', 'De $81', 'De $211', 'De $175', 'De $1,117', 'De $1,934', 'De $1,054', 'De $369', 'De $771', 'De $272', 'De $247', 'De $595', 'De $649', 'De $989', 'De $307', 'De $206', 'De $216', 'De $99', 'De $176', 'De $585', 'De $323', 'De $83']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Currency Change to CA</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $438', 'De $231', 'De $979', 'De $114', 'De $298', 'De $247', 'De $1,578', 'De $2,734', 'De $1,489', 'De $521', 'De $1,090', 'De $384', 'De $349', 'De $841', 'De $917', 'De $1,398', 'De $434', 'De $292', 'De $305', 'De $140', 'De $249', 'De $827', 'De $457', 'De $117']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Currency Change to BE</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De €293', 'De €154', 'De €654', 'De €76', 'De €199', 'De €165', 'De €1,055', 'De €1,828', 'De €996', 'De €348', 'De €729', 'De €257', 'De €233', 'De €562', 'De €613', 'De €935', 'De €290', 'De €195', 'De €204', 'De €94', 'De €166', 'De €553', 'De €305', 'De €78']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Currency Change to IE</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De £243', 'De £128', 'De £542', 'De £63', 'De £165', 'De £137', 'De £874', 'De £1,514', 'De £825', 'De £289', 'De £604', 'De £213', 'De £193', 'De £466', 'De £508', 'De £774', 'De £240', 'De £162', 'De £169', 'De £78', 'De £138', 'De £458', 'De £253', 'De £65']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Currency Change to AU</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $481', 'De $253', 'De $1,074', 'De $125', 'De $327', 'De $271', 'De $1,732', 'De $3,000', 'De $1,634', 'De $572', 'De $1,196', 'De $421', 'De $383', 'De $923', 'De $1,006', 'De $1,534', 'De $476', 'De $320', 'De $335', 'De $154', 'De $273', 'De $908', 'De $501', 'De $129']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Currency Change to SG</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $415', 'De $218', 'De $927', 'De $108', 'De $282', 'De $234', 'De $1,495', 'De $2,590', 'De $1,411', 'De $493', 'De $1,032', 'De $364', 'De $330', 'De $797', 'De $869', 'De $1,324', 'De $411', 'De $276', 'De $289', 'De $133', 'De $235', 'De $784', 'De $432', 'De $111']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Currency Change to AE</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De د.إ.1,139', 'De د.إ.599', 'De د.إ.2,543', 'De د.إ.297', 'De د.إ.774', 'De د.إ.641', 'De د.إ.4,101', 'De د.إ.7,104', 'De د.إ.3,869', 'De د.إ.1,354', 'De د.إ.2,832', 'De د.إ.998', 'De د.إ.906', 'De د.إ.2,185', 'De د.إ.2,383', 'De د.إ.3,633', 'De د.إ.1,128', 'De د.إ.758', 'De د.إ.793', 'De د.إ.365', 'De د.إ.646', 'De د.إ.2,150', 'De د.إ.1,186', 'De د.إ.305']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Currency Change to BD</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De ৳37,170', 'De ৳19,560', 'De ৳83,003', 'De ৳9,688', 'De ৳25,270', 'De ৳20,924', 'De ৳133,890', 'De ৳231,893', 'De ৳126,318', 'De ৳44,189', 'De ৳92,445', 'De ৳32,563', 'De ৳29,568', 'De ৳71,342', 'De ৳77,781', 'De ৳118,584', 'De ৳36,810', 'De ৳24,748', 'De ৳25,899', 'De ৳11,914', 'De ৳21,079', 'De ৳70,186', 'De ৳38,729', 'De ৳9,952']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/reports/test_result.xlsx
+++ b/reports/test_result.xlsx
@@ -10,11 +10,9 @@
     <sheet name="h1_tag_test" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="html_tag_sequence_test" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="image_alt_attribute_test" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ScrapedData" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="currency_filtering_test" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="currency_filtering_test1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="currency_filtering_test2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="currency_filtering_test3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="url_status_test" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ScrapedData" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="currency_filtering_test" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io</t>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,7 +476,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;h1&gt; tag exists with text: Encuentra los mejores alojamientos y casas de alquiler vacacional</t>
+          <t>&lt;h1&gt; tag exists with text: Bonita casa de campo típica Mallorquina | Casa en Sant Jordi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Check H1 Tag</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt; tag exists with text: Bonita casa de campo típica Mallorquina | Casa en Sant Jordi</t>
         </is>
       </c>
     </row>
@@ -493,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +544,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io</t>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -539,7 +557,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sequence broken: &lt;h3&gt; is missing</t>
+          <t>Sequence broken: &lt;h5&gt; is missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HTML Tag Sequence Test</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sequence broken: &lt;h5&gt; is missing</t>
         </is>
       </c>
     </row>
@@ -554,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +625,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io</t>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -599,6 +637,26 @@
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>All images have alt attributes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Check Image Alt Attribute</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>All images have alt attributes.</t>
         </is>
@@ -615,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,64 +684,62 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>SiteURL</t>
+          <t>Page URL</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CampaignID</t>
+          <t>Test Case</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SiteName</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Browser</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CountryCode</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IP</t>
+          <t>Comments</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io</t>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALOJAMIENTO</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>alo</t>
-        </is>
+          <t>Check URL Status</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Headless Chrome</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>182.160.106.203</t>
+          <t>All URLs returned valid status codes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Check URL Status</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>All URLs returned valid status codes.</t>
         </is>
       </c>
     </row>
@@ -698,7 +754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,182 +765,96 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Page URL</t>
+          <t>SiteURL</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Test Case</t>
+          <t>CampaignID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>SiteName</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Browser</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CountryCode</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>IP</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io</t>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Currency Change to US</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
+          <t>ALOJAMIENTO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>alo</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Updated prices: ['De $130', 'De $311', 'De $91', 'De $85', 'De $22', 'De $248']</t>
+          <t>Headless Chrome</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>182.160.106.203</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io</t>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Currency Change to CA</t>
-        </is>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
+          <t>ALOJAMIENTO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>alo</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Updated prices: ['De $184', 'De $439', 'De $128', 'De $120', 'De $31', 'De $350']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Currency Change to BE</t>
-        </is>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De €123', 'De €294', 'De €86', 'De €80', 'De €21', 'De €234']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Currency Change to IE</t>
-        </is>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De £102', 'De £243', 'De £71', 'De £66', 'De £17', 'De £194']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Currency Change to AU</t>
-        </is>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De $202', 'De $482', 'De $141', 'De $131', 'De $34', 'De $384']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Currency Change to SG</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De $175', 'De $416', 'De $121', 'De $113', 'De $30', 'De $332']</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Currency Change to AE</t>
-        </is>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De د.إ.479', 'De د.إ.1,141', 'De د.إ.333', 'De د.إ.311', 'De د.إ.81', 'De د.إ.910']</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Currency Change to BD</t>
-        </is>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De ৳15,632', 'De ৳37,255', 'De ৳10,879', 'De ৳10,139', 'De ৳2,646', 'De ৳29,707']</t>
+          <t>Headless Chrome</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>182.160.106.203</t>
         </is>
       </c>
     </row>
@@ -899,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,405 +1059,163 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Page URL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Currency Change to US</t>
         </is>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De $108', 'De $72', 'De $133', 'De $74', 'De $192', 'De $50']</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $767', 'De $719', 'De $1,168', 'De $161', 'De $366', 'De $117', 'De $741', 'De $496', 'De $722', 'De $269', 'De $1,995', 'De $69', 'De $1,448', 'De $215', 'De $1,071', 'De $539', 'De $591', 'De $234', 'De $1,089', 'De $111', 'De $121', 'De $227', 'De $380', 'De $524']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Currency Change to CA</t>
         </is>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De $152', 'De $102', 'De $188', 'De $105', 'De $271', 'De $71']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $1,084', 'De $1,017', 'De $1,651', 'De $227', 'De $517', 'De $166', 'De $1,047', 'De $701', 'De $1,021', 'De $380', 'De $2,820', 'De $97', 'De $2,047', 'De $304', 'De $1,514', 'De $762', 'De $836', 'De $330', 'De $1,539', 'De $157', 'De $171', 'De $321', 'De $537', 'De $741']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Currency Change to BE</t>
         </is>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De €102', 'De €68', 'De €126', 'De €70', 'De €181', 'De €47']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De €725', 'De €680', 'De €1,104', 'De €152', 'De €346', 'De €111', 'De €700', 'De €469', 'De €682', 'De €254', 'De €1,886', 'De €65', 'De €1,369', 'De €203', 'De €1,012', 'De €509', 'De €559', 'De €221', 'De €1,029', 'De €105', 'De €114', 'De €215', 'De €359', 'De €495']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Currency Change to IE</t>
         </is>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De £84', 'De £57', 'De £104', 'De £58', 'De £150', 'De £39']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De £600', 'De £563', 'De £914', 'De £126', 'De £287', 'De £92', 'De £580', 'De £388', 'De £565', 'De £211', 'De £1,562', 'De £54', 'De £1,134', 'De £168', 'De £838', 'De £422', 'De £463', 'De £183', 'De £853', 'De £87', 'De £95', 'De £178', 'De £297', 'De £410']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Currency Change to AU</t>
         </is>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De $167', 'De $112', 'De $206', 'De $115', 'De $298', 'De $78']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $1,190', 'De $1,116', 'De $1,812', 'De $250', 'De $568', 'De $182', 'De $1,150', 'De $770', 'De $1,120', 'De $417', 'De $3,095', 'De $106', 'De $2,246', 'De $334', 'De $1,662', 'De $836', 'De $917', 'De $363', 'De $1,690', 'De $172', 'De $188', 'De $353', 'De $590', 'De $813']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Currency Change to SG</t>
         </is>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De $144', 'De $97', 'De $178', 'De $99', 'De $257', 'De $67']</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De $1,027', 'De $963', 'De $1,564', 'De $215', 'De $490', 'De $157', 'De $992', 'De $664', 'De $967', 'De $360', 'De $2,671', 'De $92', 'De $1,939', 'De $288', 'De $1,434', 'De $722', 'De $792', 'De $313', 'De $1,458', 'De $149', 'De $162', 'De $304', 'De $509', 'De $702']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Currency Change to AE</t>
         </is>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De د.إ.395', 'De د.إ.265', 'De د.إ.489', 'De د.إ.272', 'De د.إ.705', 'De د.إ.184']</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De د.إ.2,817', 'De د.إ.2,642', 'De د.إ.4,290', 'De د.إ.591', 'De د.إ.1,344', 'De د.إ.431', 'De د.إ.2,722', 'De د.إ.1,822', 'De د.إ.2,652', 'De د.إ.988', 'De د.إ.7,328', 'De د.إ.252', 'De د.إ.5,318', 'De د.إ.790', 'De د.إ.3,934', 'De د.إ.1,980', 'De د.إ.2,172', 'De د.إ.858', 'De د.إ.4,000', 'De د.إ.408', 'De د.إ.444', 'De د.إ.835', 'De د.إ.1,396', 'De د.إ.1,925']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/bonita-casa-de-campo-t%c3%adpica-mallorquina/BC-12224317</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Currency Change to BD</t>
         </is>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De ৳12,890', 'De ৳8,656', 'De ৳15,947', 'De ৳8,873', 'De ৳23,021', 'De ৳6,000']</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Page URL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Currency Change to US</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De $310', 'De $163', 'De $692', 'De $81', 'De $211', 'De $175', 'De $1,117', 'De $1,934', 'De $1,054', 'De $369', 'De $771', 'De $272', 'De $247', 'De $595', 'De $649', 'De $989', 'De $307', 'De $206', 'De $216', 'De $99', 'De $176', 'De $585', 'De $323', 'De $83']</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Currency Change to CA</t>
-        </is>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De $438', 'De $231', 'De $979', 'De $114', 'De $298', 'De $247', 'De $1,578', 'De $2,734', 'De $1,489', 'De $521', 'De $1,090', 'De $384', 'De $349', 'De $841', 'De $917', 'De $1,398', 'De $434', 'De $292', 'De $305', 'De $140', 'De $249', 'De $827', 'De $457', 'De $117']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Currency Change to BE</t>
-        </is>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De €293', 'De €154', 'De €654', 'De €76', 'De €199', 'De €165', 'De €1,055', 'De €1,828', 'De €996', 'De €348', 'De €729', 'De €257', 'De €233', 'De €562', 'De €613', 'De €935', 'De €290', 'De €195', 'De €204', 'De €94', 'De €166', 'De €553', 'De €305', 'De €78']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Currency Change to IE</t>
-        </is>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De £243', 'De £128', 'De £542', 'De £63', 'De £165', 'De £137', 'De £874', 'De £1,514', 'De £825', 'De £289', 'De £604', 'De £213', 'De £193', 'De £466', 'De £508', 'De £774', 'De £240', 'De £162', 'De £169', 'De £78', 'De £138', 'De £458', 'De £253', 'De £65']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Currency Change to AU</t>
-        </is>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De $481', 'De $253', 'De $1,074', 'De $125', 'De $327', 'De $271', 'De $1,732', 'De $3,000', 'De $1,634', 'De $572', 'De $1,196', 'De $421', 'De $383', 'De $923', 'De $1,006', 'De $1,534', 'De $476', 'De $320', 'De $335', 'De $154', 'De $273', 'De $908', 'De $501', 'De $129']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Currency Change to SG</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De $415', 'De $218', 'De $927', 'De $108', 'De $282', 'De $234', 'De $1,495', 'De $2,590', 'De $1,411', 'De $493', 'De $1,032', 'De $364', 'De $330', 'De $797', 'De $869', 'De $1,324', 'De $411', 'De $276', 'De $289', 'De $133', 'De $235', 'De $784', 'De $432', 'De $111']</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Currency Change to AE</t>
-        </is>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De د.إ.1,139', 'De د.إ.599', 'De د.إ.2,543', 'De د.إ.297', 'De د.إ.774', 'De د.إ.641', 'De د.إ.4,101', 'De د.إ.7,104', 'De د.إ.3,869', 'De د.إ.1,354', 'De د.إ.2,832', 'De د.إ.998', 'De د.إ.906', 'De د.إ.2,185', 'De د.إ.2,383', 'De د.إ.3,633', 'De د.إ.1,128', 'De د.إ.758', 'De د.إ.793', 'De د.إ.365', 'De د.إ.646', 'De د.إ.2,150', 'De د.إ.1,186', 'De د.إ.305']</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.alojamiento.io/property/charming-lavapi%c3%a9s-town-cozy-apartment-for-4-people-ac/HA-61511638942</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Currency Change to BD</t>
-        </is>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Updated prices: ['De ৳37,170', 'De ৳19,560', 'De ৳83,003', 'De ৳9,688', 'De ৳25,270', 'De ৳20,924', 'De ৳133,890', 'De ৳231,893', 'De ৳126,318', 'De ৳44,189', 'De ৳92,445', 'De ৳32,563', 'De ৳29,568', 'De ৳71,342', 'De ৳77,781', 'De ৳118,584', 'De ৳36,810', 'De ৳24,748', 'De ৳25,899', 'De ৳11,914', 'De ৳21,079', 'De ৳70,186', 'De ৳38,729', 'De ৳9,952']</t>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Updated prices: ['De ৳91,966', 'De ৳86,234', 'De ৳140,047', 'De ৳19,294', 'De ৳43,885', 'De ৳14,077', 'De ৳88,848', 'De ৳59,492', 'De ৳86,570', 'De ৳32,248', 'De ৳239,207', 'De ৳8,219', 'De ৳173,620', 'De ৳25,779', 'De ৳128,416', 'De ৳64,628', 'De ৳70,899', 'De ৳28,023', 'De ৳130,575', 'De ৳13,309', 'De ৳14,499', 'De ৳27,260', 'De ৳45,563', 'De ৳62,841']</t>
         </is>
       </c>
     </row>
